--- a/uws.xlsx
+++ b/uws.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>фамилия</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Петрович</t>
+  </si>
+  <si>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>Васин</t>
+  </si>
+  <si>
+    <t>Вася</t>
+  </si>
+  <si>
+    <t>иностр.яз</t>
+  </si>
+  <si>
+    <t>физ-ра</t>
+  </si>
+  <si>
+    <t>музыка</t>
   </si>
 </sst>
 </file>
@@ -413,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +599,79 @@
         <v>222111</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>3333</v>
+      </c>
+      <c r="E8">
+        <v>333111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>3333</v>
+      </c>
+      <c r="E9">
+        <v>333111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>3333</v>
+      </c>
+      <c r="E10">
+        <v>333111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
